--- a/xlsx/天赋人权_intext.xlsx
+++ b/xlsx/天赋人权_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="541">
   <si>
     <t>天赋人权</t>
   </si>
@@ -26,16 +26,16 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%88%A9</t>
   </si>
   <si>
-    <t>權利</t>
-  </si>
-  <si>
-    <t>政策_政策_政治學_天赋人权</t>
+    <t>权利</t>
+  </si>
+  <si>
+    <t>政策_政策_政治学_天赋人权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E6%AC%8A%E5%88%A9</t>
   </si>
   <si>
-    <t>自然權利</t>
+    <t>自然权利</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Claim_rights_and_liberty_rights</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E6%9C%AC%E6%AC%8A</t>
   </si>
   <si>
-    <t>基本權</t>
+    <t>基本权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E3%80%81%E7%A4%BE%E4%BC%9A%E5%92%8C%E6%96%87%E5%8C%96%E6%9D%83%E5%88%A9</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%AC%8A</t>
   </si>
   <si>
-    <t>人權</t>
+    <t>人权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A8%E7%89%A9%E6%9D%83%E5%88%A9</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%91%97%E4%BD%9C%E6%AC%8A</t>
   </si>
   <si>
-    <t>著作權</t>
+    <t>着作权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%84%BF%E7%AB%A5%E6%9D%83%E5%88%A9</t>
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E8%B2%BB%E8%80%85%E6%AC%8A%E5%88%A9</t>
   </si>
   <si>
-    <t>消費者權利</t>
+    <t>消费者权利</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Fathers%27_rights_movement</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%8D%E6%AC%8A</t>
   </si>
   <si>
-    <t>母權</t>
+    <t>母权</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Fetal_rights</t>
@@ -137,13 +137,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E6%AC%8A%E7%A5%9E%E6%8E%88</t>
   </si>
   <si>
-    <t>君權神授</t>
+    <t>君权神授</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E6%80%A7%E6%AC%8A%E5%88%A9</t>
   </si>
   <si>
-    <t>女性權利</t>
+    <t>女性权利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B7%E6%9D%83%E8%BF%90%E5%8A%A8</t>
@@ -185,19 +185,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B0%91%E8%87%AA%E7%94%B1%E6%AC%8A</t>
   </si>
   <si>
-    <t>公民自由權</t>
+    <t>公民自由权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E4%BD%8D%E8%91%97%E4%BD%9C%E6%AC%8A</t>
   </si>
   <si>
-    <t>數位著作權</t>
+    <t>数位着作权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E8%A8%80%E6%AC%8A%E5%88%A9</t>
   </si>
   <si>
-    <t>語言權利</t>
+    <t>语言权利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E8%82%B2%E6%9D%83</t>
@@ -209,7 +209,7 @@
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E6%AC%8A%E5%88%A9</t>
   </si>
   <si>
-    <t>Template talk-權利</t>
+    <t>Template talk-权利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%A6%E7%90%86%E5%AD%A6</t>
@@ -239,7 +239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%84%E6%83%A1</t>
   </si>
   <si>
-    <t>善惡</t>
+    <t>善恶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%93%E5%BE%B7</t>
@@ -251,33 +251,30 @@
     <t>https://zh.wikipedia.org/wiki/%E6%87%89%E7%94%A8%E5%80%AB%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>應用倫理學</t>
+    <t>应用伦理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%80%AB%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>生物倫理學</t>
+    <t>生物伦理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%86%AB%E5%AD%B8%E5%80%AB%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>醫學倫理學</t>
+    <t>医学伦理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E5%80%AB%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>環境倫理學</t>
+    <t>环境伦理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%9D%83</t>
   </si>
   <si>
-    <t>人权</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E4%B8%9A%E4%BC%A6%E7%90%86</t>
   </si>
   <si>
@@ -287,13 +284,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E7%BE%A9%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>正義戰爭</t>
+    <t>正义战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E7%BE%A9</t>
   </si>
   <si>
-    <t>正義</t>
+    <t>正义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%A3%E4%BB%BB</t>
@@ -431,9 +428,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%83%E5%88%A9</t>
   </si>
   <si>
-    <t>权利</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E6%96%87</t>
   </si>
   <si>
@@ -485,13 +479,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B1%85%E9%AD%AF%E5%A3%AB%E6%96%87%E6%9B%B8</t>
   </si>
   <si>
-    <t>居魯士文書</t>
+    <t>居鲁士文书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B1%85%E9%AD%AF%E5%A3%AB%E5%A4%A7%E5%B8%9D</t>
   </si>
   <si>
-    <t>居魯士大帝</t>
+    <t>居鲁士大帝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%AF%94%E4%BC%A6%E5%9B%9A%E8%99%8F</t>
@@ -503,7 +497,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E5%A4%AA%E4%BA%BA</t>
   </si>
   <si>
-    <t>猶太人</t>
+    <t>犹太人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%9D%83%E5%AE%A3%E8%A8%80</t>
@@ -515,7 +509,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E7%B4%A2%E4%B8%8D%E9%81%94%E7%B1%B3%E4%BA%9E</t>
   </si>
   <si>
-    <t>美索不達米亞</t>
+    <t>美索不达米亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6</t>
@@ -527,13 +521,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98</t>
   </si>
   <si>
-    <t>希臘</t>
+    <t>希腊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC</t>
   </si>
   <si>
-    <t>羅馬</t>
+    <t>罗马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%85%8A%E5%93%B2%E5%AD%A6</t>
@@ -617,7 +611,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%A1%9E%E7%BE%85</t>
   </si>
   <si>
-    <t>西塞羅</t>
+    <t>西塞罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E9%A9%AC%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -653,7 +647,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%AC%8A%E6%B3%95%E6%A1%88</t>
   </si>
   <si>
-    <t>人權法案</t>
+    <t>人权法案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E6%B2%BB</t>
@@ -683,19 +677,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%B3%95%E7%AE%A1%E8%BD%84%E6%AC%8A</t>
   </si>
   <si>
-    <t>司法管轄權</t>
+    <t>司法管辖权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%AC%8A%E5%88%A9%E6%B3%95%E6%A1%88</t>
   </si>
   <si>
-    <t>美國權利法案</t>
+    <t>美国权利法案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
   </si>
   <si>
-    <t>美國憲法修正案</t>
+    <t>美国宪法修正案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95</t>
@@ -707,13 +701,10 @@
     <t>https://zh.wikipedia.org/wiki/%E6%86%B2%E6%B3%95</t>
   </si>
   <si>
-    <t>憲法</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%A2%9D%E4%BB%B6%E5%9F%BA%E6%9C%AC%E6%94%B6%E5%85%A5</t>
   </si>
   <si>
-    <t>無條件基本收入</t>
+    <t>无条件基本收入</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E4%B8%96%E4%BB%B7%E5%80%BC</t>
@@ -731,13 +722,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%86%B2%E5%88%B6%E6%80%A7%E6%B3%95%E5%BE%8B</t>
   </si>
   <si>
-    <t>憲制性法律</t>
+    <t>宪制性法律</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%91%E7%B4%84</t>
   </si>
   <si>
-    <t>契約</t>
+    <t>契约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%91%E6%B3%95</t>
@@ -755,13 +746,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AD%89%E6%93%9A</t>
   </si>
   <si>
-    <t>證據</t>
+    <t>证据</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%B3%95</t>
   </si>
   <si>
-    <t>國際法</t>
+    <t>国际法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%BA%E6%9D%83%E6%B3%95</t>
@@ -779,25 +770,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%BA%8B%E8%A8%B4%E8%A8%9F%E6%B3%95</t>
   </si>
   <si>
-    <t>民事訴訟法</t>
+    <t>民事诉讼法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%91%E4%BA%8B%E8%A8%B4%E8%A8%9F%E6%B3%95</t>
   </si>
   <si>
-    <t>刑事訴訟法</t>
+    <t>刑事诉讼法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E8%A8%B4%E8%A8%9F%E6%B3%95</t>
   </si>
   <si>
-    <t>行政訴訟法</t>
+    <t>行政诉讼法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E6%AC%8A</t>
   </si>
   <si>
-    <t>物權</t>
+    <t>物权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B3%95</t>
@@ -845,7 +836,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A0%B4%E7%94%A2</t>
   </si>
   <si>
-    <t>破產</t>
+    <t>破产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E6%B3%95</t>
@@ -857,13 +848,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AB%B6%E7%88%AD%E6%B3%95</t>
   </si>
   <si>
-    <t>競爭法</t>
+    <t>竞争法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E7%A7%81%E6%B3%95</t>
   </si>
   <si>
-    <t>國際私法</t>
+    <t>国际私法</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Construction_law</t>
@@ -935,7 +926,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AD%98%E7%94%A2%E6%AC%8A</t>
   </si>
   <si>
-    <t>知識產權</t>
+    <t>知识产权</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/International_criminal_law</t>
@@ -947,13 +938,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E4%BA%BA%E6%AC%8A%E6%B3%95</t>
   </si>
   <si>
-    <t>國際人權法</t>
+    <t>国际人权法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%B7%A5%E6%B3%95</t>
   </si>
   <si>
-    <t>勞工法</t>
+    <t>劳工法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%98%E4%BA%89%E6%B3%95</t>
@@ -989,19 +980,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B9%BC%E6%89%BF%E6%B3%95</t>
   </si>
   <si>
-    <t>繼承法</t>
+    <t>继承法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A1%E7%94%A2</t>
   </si>
   <si>
-    <t>財產</t>
+    <t>财产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%BA%E5%9B%91</t>
   </si>
   <si>
-    <t>遺囑</t>
+    <t>遗嘱</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Product_liability</t>
@@ -1061,7 +1052,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E6%AC%8A%E7%A5%9E%E6%8E%88%E8%AA%AA</t>
   </si>
   <si>
-    <t>君權神授說</t>
+    <t>君权神授说</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A4%E4%BE%8B%E6%B3%95</t>
@@ -1073,7 +1064,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%A4%E6%B1%BA%E5%85%88%E4%BE%8B</t>
   </si>
   <si>
-    <t>判決先例</t>
+    <t>判决先例</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%B5%E5%BE%AA%E5%85%88%E4%BE%8B</t>
@@ -1109,7 +1100,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A9%94%E4%BB%A4%E6%96%87%E6%9B%B8</t>
   </si>
   <si>
-    <t>詔令文書</t>
+    <t>诏令文书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E5%91%BD%E4%BB%A4</t>
@@ -1139,7 +1130,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E6%B3%95%E8%A6%8F</t>
   </si>
   <si>
-    <t>行政法規</t>
+    <t>行政法规</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Rulemaking</t>
@@ -1163,25 +1154,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%A6%8F</t>
   </si>
   <si>
-    <t>法規</t>
+    <t>法规</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%81%AF%E9%82%A6%E8%AD%B0%E6%9C%83%E7%AB%8B%E6%B3%95</t>
   </si>
   <si>
-    <t>英聯邦議會立法</t>
+    <t>英联邦议会立法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%9C%83%E6%B3%95%E6%A1%88</t>
   </si>
   <si>
-    <t>美國國會法案</t>
+    <t>美国国会法案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>條約</t>
+    <t>条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E7%B3%BB</t>
@@ -1193,7 +1184,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%99%B8%E6%B3%95%E7%B3%BB</t>
   </si>
   <si>
-    <t>大陸法系</t>
+    <t>大陆法系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E7%BE%8E%E6%B3%95%E7%B3%BB</t>
@@ -1205,7 +1196,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B3%95%E7%B3%BB</t>
   </si>
   <si>
-    <t>中華法系</t>
+    <t>中华法系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E5%A4%9A%E5%85%83%E8%AE%BA</t>
@@ -1247,13 +1238,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E9%87%8C%E4%BA%9E%E6%B3%95%E8%A6%8F</t>
   </si>
   <si>
-    <t>沙里亞法規</t>
+    <t>沙里亚法规</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E6%B3%95</t>
   </si>
   <si>
-    <t>羅馬法</t>
+    <t>罗马法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89%E6%B3%95%E7%B3%BB</t>
@@ -1277,13 +1268,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%AD%B8</t>
   </si>
   <si>
-    <t>法學</t>
+    <t>法学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E5%8E%9F%E5%89%87</t>
   </si>
   <si>
-    <t>法律原則</t>
+    <t>法律原则</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%B9%E5%88%A4%E6%B3%95%E5%BE%8B%E7%A0%94%E7%A9%B6</t>
@@ -1295,7 +1286,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E8%BC%83%E6%B3%95%E5%AD%B8</t>
   </si>
   <si>
-    <t>比較法學</t>
+    <t>比较法学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Feminist_legal_theory</t>
@@ -1343,7 +1334,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>法律哲學</t>
+    <t>法律哲学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Adjudication</t>
@@ -1367,7 +1358,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B%E6%B3%95%E5%BA%AD</t>
   </si>
   <si>
-    <t>軍事法庭</t>
+    <t>军事法庭</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Dispute_resolution</t>
@@ -1379,7 +1370,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E6%95%99%E6%B3%95%E5%AD%B8</t>
   </si>
   <si>
-    <t>伊斯蘭教法學</t>
+    <t>伊斯兰教法学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E6%84%8F%E8%A7%81</t>
@@ -1403,7 +1394,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E7%B4%B3%E5%A3%AB</t>
   </si>
   <si>
-    <t>太平紳士</t>
+    <t>太平绅士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8E%A8%E5%AE%98</t>
@@ -1421,19 +1412,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%B3%95%E8%A6%86%E6%A0%B8</t>
   </si>
   <si>
-    <t>司法覆核</t>
+    <t>司法复核</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%AA%E5%AF%A9%E5%9C%98</t>
   </si>
   <si>
-    <t>陪審團</t>
+    <t>陪审团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%B9%B3%E6%AD%A3%E7%BE%A9</t>
   </si>
   <si>
-    <t>公平正義</t>
+    <t>公平正义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Legal_profession</t>
@@ -1451,7 +1442,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A8%9F%E5%8B%99%E5%BE%8B%E5%B8%AB</t>
   </si>
   <si>
-    <t>訟務律師</t>
+    <t>讼务律师</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Counsel</t>
@@ -1463,25 +1454,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8B%E5%B8%AB</t>
   </si>
   <si>
-    <t>律師</t>
+    <t>律师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AA%A2%E5%AF%9F%E5%AE%98</t>
   </si>
   <si>
-    <t>檢察官</t>
+    <t>检察官</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8B%E5%8B%99%E5%BE%8B%E5%B8%AB</t>
   </si>
   <si>
-    <t>事務律師</t>
+    <t>事务律师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%AD%B8%E5%AE%B6</t>
   </si>
   <si>
-    <t>法學家</t>
+    <t>法学家</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Paralegal</t>
@@ -1541,19 +1532,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8B%E5%B8%AB%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>律師學院</t>
+    <t>律师学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8B%E5%B8%AB%E4%BA%8B%E5%8B%99%E6%89%80</t>
   </si>
   <si>
-    <t>律師事務所</t>
+    <t>律师事务所</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B0%91%E7%A4%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>公民社會</t>
+    <t>公民社会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BA%AD</t>
@@ -1577,19 +1568,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%B7%E9%81%94%E5%90%8F</t>
   </si>
   <si>
-    <t>執達吏</t>
+    <t>执达吏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%B8%E8%88%89%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>選舉委員會</t>
+    <t>选举委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E6%A9%9F%E9%97%9C</t>
   </si>
   <si>
-    <t>行政機關</t>
+    <t>行政机关</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%B3%95%E6%9C%BA%E5%85%B3</t>
@@ -1613,13 +1604,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%A9%9F%E9%97%9C</t>
   </si>
   <si>
-    <t>立法機關</t>
+    <t>立法机关</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E9%9A%8A</t>
   </si>
   <si>
-    <t>軍隊</t>
+    <t>军队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%A6%E5%AF%9F</t>
@@ -1631,7 +1622,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E9%BB%A8</t>
   </si>
   <si>
-    <t>政黨</t>
+    <t>政党</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Tribunal</t>
@@ -3235,7 +3226,7 @@
         <v>85</v>
       </c>
       <c r="F43" t="s">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="G43" t="n">
         <v>13</v>
@@ -3290,10 +3281,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>86</v>
+      </c>
+      <c r="F45" t="s">
         <v>87</v>
-      </c>
-      <c r="F45" t="s">
-        <v>88</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -3319,10 +3310,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" t="s">
         <v>89</v>
-      </c>
-      <c r="F46" t="s">
-        <v>90</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -3348,10 +3339,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>90</v>
+      </c>
+      <c r="F47" t="s">
         <v>91</v>
-      </c>
-      <c r="F47" t="s">
-        <v>92</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -3377,10 +3368,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>92</v>
+      </c>
+      <c r="F48" t="s">
         <v>93</v>
-      </c>
-      <c r="F48" t="s">
-        <v>94</v>
       </c>
       <c r="G48" t="n">
         <v>2</v>
@@ -3406,10 +3397,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>94</v>
+      </c>
+      <c r="F49" t="s">
         <v>95</v>
-      </c>
-      <c r="F49" t="s">
-        <v>96</v>
       </c>
       <c r="G49" t="n">
         <v>2</v>
@@ -3435,10 +3426,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>96</v>
+      </c>
+      <c r="F50" t="s">
         <v>97</v>
-      </c>
-      <c r="F50" t="s">
-        <v>98</v>
       </c>
       <c r="G50" t="n">
         <v>2</v>
@@ -3464,10 +3455,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>98</v>
+      </c>
+      <c r="F51" t="s">
         <v>99</v>
-      </c>
-      <c r="F51" t="s">
-        <v>100</v>
       </c>
       <c r="G51" t="n">
         <v>8</v>
@@ -3493,10 +3484,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>100</v>
+      </c>
+      <c r="F52" t="s">
         <v>101</v>
-      </c>
-      <c r="F52" t="s">
-        <v>102</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -3522,10 +3513,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>102</v>
+      </c>
+      <c r="F53" t="s">
         <v>103</v>
-      </c>
-      <c r="F53" t="s">
-        <v>104</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -3551,10 +3542,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>104</v>
+      </c>
+      <c r="F54" t="s">
         <v>105</v>
-      </c>
-      <c r="F54" t="s">
-        <v>106</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -3580,10 +3571,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>106</v>
+      </c>
+      <c r="F55" t="s">
         <v>107</v>
-      </c>
-      <c r="F55" t="s">
-        <v>108</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -3609,10 +3600,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>108</v>
+      </c>
+      <c r="F56" t="s">
         <v>109</v>
-      </c>
-      <c r="F56" t="s">
-        <v>110</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3638,10 +3629,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>110</v>
+      </c>
+      <c r="F57" t="s">
         <v>111</v>
-      </c>
-      <c r="F57" t="s">
-        <v>112</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -3667,10 +3658,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>112</v>
+      </c>
+      <c r="F58" t="s">
         <v>113</v>
-      </c>
-      <c r="F58" t="s">
-        <v>114</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -3696,10 +3687,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>114</v>
+      </c>
+      <c r="F59" t="s">
         <v>115</v>
-      </c>
-      <c r="F59" t="s">
-        <v>116</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3725,10 +3716,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>116</v>
+      </c>
+      <c r="F60" t="s">
         <v>117</v>
-      </c>
-      <c r="F60" t="s">
-        <v>118</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3754,10 +3745,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>118</v>
+      </c>
+      <c r="F61" t="s">
         <v>119</v>
-      </c>
-      <c r="F61" t="s">
-        <v>120</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3783,10 +3774,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>120</v>
+      </c>
+      <c r="F62" t="s">
         <v>121</v>
-      </c>
-      <c r="F62" t="s">
-        <v>122</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3812,10 +3803,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>122</v>
+      </c>
+      <c r="F63" t="s">
         <v>123</v>
-      </c>
-      <c r="F63" t="s">
-        <v>124</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3841,10 +3832,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>124</v>
+      </c>
+      <c r="F64" t="s">
         <v>125</v>
-      </c>
-      <c r="F64" t="s">
-        <v>126</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3870,10 +3861,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>126</v>
+      </c>
+      <c r="F65" t="s">
         <v>127</v>
-      </c>
-      <c r="F65" t="s">
-        <v>128</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3899,10 +3890,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>128</v>
+      </c>
+      <c r="F66" t="s">
         <v>129</v>
-      </c>
-      <c r="F66" t="s">
-        <v>130</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3928,10 +3919,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>130</v>
+      </c>
+      <c r="F67" t="s">
         <v>131</v>
-      </c>
-      <c r="F67" t="s">
-        <v>132</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3957,10 +3948,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>132</v>
+      </c>
+      <c r="F68" t="s">
         <v>133</v>
-      </c>
-      <c r="F68" t="s">
-        <v>134</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3986,10 +3977,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>134</v>
+      </c>
+      <c r="F69" t="s">
         <v>135</v>
-      </c>
-      <c r="F69" t="s">
-        <v>136</v>
       </c>
       <c r="G69" t="n">
         <v>3</v>
@@ -4015,10 +4006,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F70" t="s">
-        <v>138</v>
+        <v>3</v>
       </c>
       <c r="G70" t="n">
         <v>22</v>
@@ -4044,10 +4035,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F71" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -4073,10 +4064,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F72" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -4102,10 +4093,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F73" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G73" t="n">
         <v>47</v>
@@ -4131,10 +4122,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F74" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G74" t="n">
         <v>2</v>
@@ -4160,10 +4151,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F75" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -4189,10 +4180,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F76" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G76" t="n">
         <v>2</v>
@@ -4218,10 +4209,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F77" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G77" t="n">
         <v>2</v>
@@ -4247,10 +4238,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F78" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -4276,10 +4267,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F79" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -4305,10 +4296,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F80" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -4334,10 +4325,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F81" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4363,10 +4354,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F82" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4392,10 +4383,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F83" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4421,10 +4412,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F84" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4450,10 +4441,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F85" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G85" t="n">
         <v>2</v>
@@ -4479,10 +4470,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F86" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4508,10 +4499,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F87" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G87" t="n">
         <v>3</v>
@@ -4537,10 +4528,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F88" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4566,10 +4557,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F89" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G89" t="n">
         <v>5</v>
@@ -4595,10 +4586,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F90" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4624,10 +4615,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F91" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4653,10 +4644,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F92" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4682,10 +4673,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F93" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4711,10 +4702,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F94" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4740,10 +4731,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F95" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4769,10 +4760,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F96" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4798,10 +4789,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F97" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4827,10 +4818,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F98" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4856,10 +4847,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F99" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4885,10 +4876,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F100" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4914,10 +4905,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F101" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G101" t="n">
         <v>2</v>
@@ -4943,10 +4934,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F102" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4972,10 +4963,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F103" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -5001,10 +4992,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F104" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -5030,10 +5021,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F105" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -5059,10 +5050,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F106" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -5088,10 +5079,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F107" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G107" t="n">
         <v>4</v>
@@ -5117,10 +5108,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F108" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G108" t="n">
         <v>17</v>
@@ -5146,10 +5137,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F109" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G109" t="n">
         <v>3</v>
@@ -5175,10 +5166,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F110" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G110" t="n">
         <v>5</v>
@@ -5204,10 +5195,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F111" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G111" t="n">
         <v>10</v>
@@ -5233,10 +5224,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F112" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5262,10 +5253,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F113" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5291,10 +5282,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F114" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5320,10 +5311,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F115" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5349,10 +5340,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F116" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="G116" t="n">
         <v>4</v>
@@ -5378,10 +5369,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F117" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G117" t="n">
         <v>2</v>
@@ -5407,10 +5398,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F118" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5436,10 +5427,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F119" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G119" t="n">
         <v>2</v>
@@ -5465,10 +5456,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F120" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5494,10 +5485,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F121" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5523,10 +5514,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F122" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5552,10 +5543,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F123" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5581,10 +5572,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F124" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5610,10 +5601,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F125" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G125" t="n">
         <v>2</v>
@@ -5639,10 +5630,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F126" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5668,10 +5659,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F127" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5697,10 +5688,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F128" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5726,10 +5717,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F129" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5755,10 +5746,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F130" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5784,10 +5775,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F131" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5813,10 +5804,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F132" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G132" t="n">
         <v>2</v>
@@ -5842,10 +5833,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F133" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5871,10 +5862,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F134" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G134" t="n">
         <v>3</v>
@@ -5900,10 +5891,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F135" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5929,10 +5920,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F136" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5958,10 +5949,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F137" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5987,10 +5978,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F138" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6016,10 +6007,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F139" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6045,10 +6036,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F140" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G140" t="n">
         <v>2</v>
@@ -6074,10 +6065,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F141" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -6103,10 +6094,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F142" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6132,10 +6123,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F143" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6161,10 +6152,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F144" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6190,10 +6181,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F145" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6219,10 +6210,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F146" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6248,10 +6239,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F147" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6277,10 +6268,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F148" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6306,10 +6297,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F149" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6335,10 +6326,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F150" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6364,10 +6355,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F151" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6393,10 +6384,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F152" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6422,10 +6413,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F153" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6451,10 +6442,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F154" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6480,10 +6471,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F155" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6509,10 +6500,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F156" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6538,10 +6529,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F157" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6567,10 +6558,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F158" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6596,10 +6587,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F159" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6625,10 +6616,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F160" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6654,10 +6645,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F161" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6683,10 +6674,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F162" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6712,10 +6703,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F163" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6741,10 +6732,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F164" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6770,10 +6761,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F165" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6799,10 +6790,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F166" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6828,10 +6819,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F167" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6857,10 +6848,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F168" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6886,10 +6877,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F169" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6915,10 +6906,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F170" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6944,10 +6935,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F171" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6973,10 +6964,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F172" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7002,10 +6993,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F173" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7031,10 +7022,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F174" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G174" t="n">
         <v>2</v>
@@ -7060,10 +7051,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F175" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7147,10 +7138,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F178" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7176,10 +7167,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F179" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7205,10 +7196,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F180" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7234,10 +7225,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F181" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G181" t="n">
         <v>9</v>
@@ -7263,10 +7254,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F182" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7292,10 +7283,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F183" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7321,10 +7312,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F184" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7350,10 +7341,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F185" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7379,10 +7370,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F186" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7408,10 +7399,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F187" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7437,10 +7428,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F188" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G188" t="n">
         <v>7</v>
@@ -7466,10 +7457,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F189" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7495,10 +7486,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F190" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7524,10 +7515,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F191" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7553,10 +7544,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F192" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7582,10 +7573,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F193" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7611,10 +7602,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F194" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G194" t="n">
         <v>6</v>
@@ -7640,10 +7631,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F195" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7669,10 +7660,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F196" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7698,10 +7689,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F197" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7727,10 +7718,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F198" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7756,10 +7747,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F199" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7785,10 +7776,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F200" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7814,10 +7805,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F201" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7843,10 +7834,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F202" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7872,10 +7863,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F203" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7901,10 +7892,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F204" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7930,10 +7921,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F205" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7959,10 +7950,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F206" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7988,10 +7979,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F207" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8017,10 +8008,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F208" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8046,10 +8037,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F209" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8075,10 +8066,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F210" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8104,10 +8095,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F211" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8133,10 +8124,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F212" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8162,10 +8153,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F213" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8191,10 +8182,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F214" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8220,10 +8211,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F215" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8249,10 +8240,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F216" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8278,10 +8269,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F217" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8307,10 +8298,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F218" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8336,10 +8327,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F219" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8365,10 +8356,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F220" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8394,10 +8385,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F221" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8423,10 +8414,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F222" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8452,10 +8443,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F223" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8481,10 +8472,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F224" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8510,10 +8501,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F225" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8539,10 +8530,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F226" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="G226" t="n">
         <v>9</v>
@@ -8568,10 +8559,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F227" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8597,10 +8588,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F228" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8626,10 +8617,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F229" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8655,10 +8646,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F230" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8684,10 +8675,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F231" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8713,10 +8704,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F232" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -8742,10 +8733,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F233" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -8771,10 +8762,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F234" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -8800,10 +8791,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F235" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -8829,10 +8820,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="F236" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="G236" t="n">
         <v>2</v>
@@ -8858,10 +8849,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="F237" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -8887,10 +8878,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F238" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -8916,10 +8907,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F239" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -8945,10 +8936,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="F240" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -8974,10 +8965,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F241" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9003,10 +8994,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F242" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9032,10 +9023,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F243" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9061,10 +9052,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="F244" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9090,10 +9081,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F245" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="G245" t="n">
         <v>7</v>
@@ -9119,10 +9110,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F246" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9148,10 +9139,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="F247" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9177,10 +9168,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="F248" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9206,10 +9197,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F249" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9235,10 +9226,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="F250" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9264,10 +9255,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="F251" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9293,10 +9284,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F252" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9322,10 +9313,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="F253" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9351,10 +9342,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="F254" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9380,10 +9371,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F255" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9409,10 +9400,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F256" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9438,10 +9429,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="F257" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9467,10 +9458,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F258" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9496,10 +9487,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="F259" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9525,10 +9516,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="F260" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -9554,10 +9545,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F261" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="G261" t="n">
         <v>2</v>
@@ -9583,10 +9574,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="F262" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -9612,10 +9603,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="F263" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -9641,10 +9632,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="F264" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -9670,10 +9661,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="F265" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -9699,10 +9690,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F266" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -9728,10 +9719,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="F267" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -9757,10 +9748,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="F268" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -9786,10 +9777,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F269" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -9815,10 +9806,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="F270" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -9844,10 +9835,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F271" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -9873,10 +9864,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="F272" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -9902,10 +9893,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="F273" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -9931,10 +9922,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F274" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -9960,10 +9951,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="F275" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -9989,10 +9980,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="F276" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="G276" t="n">
         <v>6</v>
@@ -10018,10 +10009,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="F277" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
